--- a/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
@@ -5,17 +5,20 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tableros" sheetId="1" r:id="rId1"/>
+    <sheet name="FMNCONPRO" sheetId="6" r:id="rId2"/>
+    <sheet name="Hoja6" sheetId="7" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -108,9 +111,6 @@
   </si>
   <si>
     <t>&gt;10</t>
-  </si>
-  <si>
-    <t>INDICADORES</t>
   </si>
   <si>
     <t>Objetivo</t>
@@ -301,12 +301,33 @@
   <si>
     <t>Ítem</t>
   </si>
+  <si>
+    <t>TABLA DE INDICADORES</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE PROCESOS</t>
+  </si>
+  <si>
+    <t>TABLA DE INDICADORES DE METRICAS</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE N CONFORMIDADES QA DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>VALORES</t>
+  </si>
+  <si>
+    <t>MESES</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE NUMERO DE N CONFORMIDADES QA DE PRODUCTO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +521,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,8 +619,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -785,12 +842,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,14 +927,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -860,15 +1020,9 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,41 +1044,41 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -935,80 +1089,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,38 +1149,72 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1077,6 +1232,1919 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15705555555555556"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMNCONPRO!$A$15:$B$15</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PPQA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Numero de N conformidades QA del Producto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMNCONPRO!$C$14:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMNCONPRO!$C$15:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="217479008"/>
+        <c:axId val="217480576"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="217479008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MES DE REVISION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217480576"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="217480576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n CONFORMIDADES QA</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="217479008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="002060"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>NUMERO DE N CONFORMIDADES QA DE PRODUCTO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMNCONPRO!$B$20:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TABLERO DE METRICAS DE N CONFORMIDADES QA DE PRODUCTO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VALORES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMNCONPRO!$A$22:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMNCONPRO!$B$22:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="243859640"/>
+        <c:axId val="243861208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="243859640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243861208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="243861208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="243859640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1145,6 +3213,175 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>681037</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7096125" y="1400175"/>
+          <a:ext cx="7496175" cy="3676650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447676</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5029201" y="3800475"/>
+          <a:ext cx="6010274" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1416,10 +3653,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:M15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1433,204 +3670,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="46"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
+      <c r="A10" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28" t="s">
+      <c r="E11" s="40"/>
+      <c r="F11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="40"/>
+      <c r="H11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="M11" s="27"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -1660,15 +3892,6 @@
       <c r="I12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1">
       <c r="A13" s="4" t="s">
@@ -1698,15 +3921,6 @@
       <c r="I13" s="7">
         <v>0.05</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1">
       <c r="A14" s="8" t="s">
@@ -1736,15 +3950,6 @@
       <c r="I14" s="10">
         <v>0.2</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="5">
-        <v>2</v>
-      </c>
-      <c r="M14" s="5">
-        <v>5</v>
-      </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1">
       <c r="A15" s="11" t="s">
@@ -1774,148 +3979,161 @@
       <c r="I15" s="10">
         <v>1</v>
       </c>
-      <c r="K15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5">
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1">
+      <c r="A16" s="98"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+    </row>
+    <row r="17" spans="10:16" ht="19.5" thickBot="1">
+      <c r="J17" s="95" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="97"/>
+    </row>
+    <row r="18" spans="10:16" ht="32.25" customHeight="1">
+      <c r="J18" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="O18" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="P18" s="94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="10:16" ht="30" customHeight="1">
+      <c r="J19" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="10:16" ht="32.25" customHeight="1">
-      <c r="J17" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="10:16" ht="30" customHeight="1">
-      <c r="J18" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="14" t="s">
+      <c r="K19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="15">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15">
-        <v>2</v>
-      </c>
-      <c r="N18" s="15">
-        <v>5</v>
-      </c>
-      <c r="O18" s="15">
-        <f>P18</f>
-        <v>1</v>
-      </c>
-      <c r="P18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="10:16" ht="30" customHeight="1">
-      <c r="J19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="L19" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M19" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" s="15">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O19" s="15">
         <f>P19</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P19" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="10:16" ht="30" customHeight="1">
-      <c r="J20" s="17" t="s">
-        <v>8</v>
+      <c r="J20" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="15">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O20" s="15">
         <f>P20</f>
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P20" s="15">
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="10:16" ht="30" customHeight="1">
-      <c r="J21" s="17" t="s">
-        <v>9</v>
+      <c r="J21" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L21" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O21" s="15">
         <f>P21</f>
+        <v>36</v>
+      </c>
+      <c r="P21" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="10:16" ht="30" customHeight="1">
+      <c r="J22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+      <c r="N22" s="15">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15">
+        <f>P22</f>
         <v>5</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P22" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="10:16">
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
+    <row r="23" spans="10:16">
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="J17:P17"/>
     <mergeCell ref="A1:P6"/>
-    <mergeCell ref="L11:M11"/>
     <mergeCell ref="A7:P8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
@@ -1925,7 +4143,7 @@
     <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -1947,7 +4165,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O18</xm:sqref>
+          <xm:sqref>O19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="3" id="{3131A288-8D96-4CFA-A78E-6BFB61EF6712}">
@@ -1966,7 +4184,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O19</xm:sqref>
+          <xm:sqref>O20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="2" id="{96336BB9-20C3-4573-9C55-FC931DAE3DE1}">
@@ -1985,7 +4203,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O20</xm:sqref>
+          <xm:sqref>O21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{FB5FBEBF-82BD-43A6-9FF0-2FA48EB8A399}">
@@ -2004,7 +4222,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>O21</xm:sqref>
+          <xm:sqref>O22</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2014,10 +4232,608 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15" customHeight="1"/>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="5" spans="1:7">
+      <c r="B5" s="102" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" thickBot="1">
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="13" spans="1:7" ht="19.5" thickBot="1">
+      <c r="A13" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+    </row>
+    <row r="14" spans="1:7" s="101" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A14" s="99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="100" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="100" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" customHeight="1">
+      <c r="A15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <f>G15</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1"/>
+    <row r="20" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A20" s="109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75">
+      <c r="A21" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="108">
+        <f>+C15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="108" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="108">
+        <f>+D15</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="108">
+        <f>+E15</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="A20:B20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
+    <row r="5" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C5" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="85"/>
+      <c r="E5" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="86"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="87" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+    </row>
+    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C6" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="79"/>
+      <c r="E6" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="80"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
+    </row>
+    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C7" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="79"/>
+      <c r="E7" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+    </row>
+    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C8" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="79"/>
+      <c r="E8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="22"/>
+      <c r="D11" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="72"/>
+      <c r="D12" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="72"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="72"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="72"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="72"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="72"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="71" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="72"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="72"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="72"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C12:C19"/>
+    <mergeCell ref="D12:F19"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B5" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B6" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="24.95" customHeight="1">
+      <c r="B7" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="15.75">
+      <c r="B8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75">
+      <c r="B9" s="25"/>
+    </row>
+    <row r="15" spans="2:9" ht="15.75" thickBot="1">
+      <c r="G15" s="1"/>
+      <c r="H15" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="2:9" ht="26.25" thickBot="1">
+      <c r="G16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" ht="15.75" thickBot="1">
+      <c r="G17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" ht="15.75" thickBot="1">
+      <c r="G18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" ht="15.75" thickBot="1">
+      <c r="G19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="5">
+        <v>6</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H15:I15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2030,115 +4846,117 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="5:11" ht="15.75">
+      <c r="E9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="5:11" ht="15" customHeight="1">
+      <c r="E10" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+    </row>
+    <row r="11" spans="5:11" ht="15" customHeight="1">
+      <c r="E11" s="61"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="58"/>
+    </row>
+    <row r="12" spans="5:11" ht="15.75">
+      <c r="E12" s="61"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="5:11" ht="15.75">
+      <c r="E13" s="61"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
+      <c r="E14" s="62"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="33" spans="1:2" ht="30" customHeight="1">
+      <c r="A33" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="45"/>
-    </row>
-    <row r="9" spans="5:11" ht="15.75">
-      <c r="E9" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-    </row>
-    <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="54"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45"/>
-    </row>
-    <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="58"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="58"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-    </row>
-    <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="58"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-    </row>
-    <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="59"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
-      <c r="A33" s="65" t="s">
+      <c r="B33" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="66" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="38.25" customHeight="1">
+      <c r="A34" s="23" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A34" s="65" t="s">
+      <c r="B34" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="66" t="s">
+    </row>
+    <row r="35" spans="1:2" ht="30" customHeight="1">
+      <c r="A35" s="23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="65" t="s">
+      <c r="B35" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="63"/>
+      <c r="A36" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="I10:I14"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
@@ -2146,305 +4964,8 @@
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="G10:G14"/>
     <mergeCell ref="H10:H14"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="75" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="81" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="3:10">
-      <c r="C11" s="64"/>
-      <c r="D11" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="70"/>
-      <c r="D12" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="70"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="70"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="70"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="70"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="70"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="70"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="70"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="70"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="70"/>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C12:C19"/>
-    <mergeCell ref="D12:F19"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B5" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B6" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="91" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="24.95" customHeight="1">
-      <c r="B7" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="91" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15.75">
-      <c r="B8" s="87"/>
-    </row>
-    <row r="9" spans="2:3" ht="15.75">
-      <c r="B9" s="87"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Ítem</t>
   </si>
   <si>
-    <t>TABLA DE INDICADORES</t>
-  </si>
-  <si>
     <t>TABLERO DE METRICAS DE PROCESOS</t>
   </si>
   <si>
@@ -321,13 +318,55 @@
   </si>
   <si>
     <t>TABLERO DE METRICAS DE NUMERO DE N CONFORMIDADES QA DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TABLA DE INDICADORES PPQA</t>
+  </si>
+  <si>
+    <t>Tablero de Metricas</t>
+  </si>
+  <si>
+    <t>Plantilla  donde se encuentran los parametros para determinar los valores para los semafores correspondientes</t>
+  </si>
+  <si>
+    <t>TABME_VX.X_2015</t>
+  </si>
+  <si>
+    <t>Metricas de Numero de N Conformidades de Producto</t>
+  </si>
+  <si>
+    <t>FMNCONPRO_VX.X_2015</t>
+  </si>
+  <si>
+    <t>Plantilla para determinar los procedimientos necesarios en el uso de metricas para el Numero de N Conformidades de Producto</t>
+  </si>
+  <si>
+    <t>POR REVISAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> METRICA</t>
+  </si>
+  <si>
+    <t>PROYECTO</t>
+  </si>
+  <si>
+    <t>RESULTADO GLOBAL</t>
+  </si>
+  <si>
+    <t>SEMAFORO MENSUAL</t>
+  </si>
+  <si>
+    <t>RESULTADO MENSUAL</t>
+  </si>
+  <si>
+    <t>SEMAFORO GLOBAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,15 +583,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,8 +698,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -879,12 +958,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -969,186 +1104,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1164,57 +1119,288 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1270,10 +1456,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1296,7 +1483,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$A$15:$B$15</c:f>
+              <c:f>FMNCONPRO!$B$17:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1309,26 +1496,85 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$C$14:$E$14</c:f>
+              <c:f>FMNCONPRO!$D$16:$F$16</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1345,18 +1591,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$C$15:$E$15</c:f>
+              <c:f>FMNCONPRO!$D$17:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,49 +1610,26 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="217479008"/>
-        <c:axId val="217480576"/>
+        <c:axId val="160322848"/>
+        <c:axId val="160323408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="217479008"/>
+        <c:axId val="160322848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1416,8 +1639,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1448,8 +1672,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1467,8 +1692,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1477,10 +1708,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1491,7 +1723,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="217480576"/>
+        <c:crossAx val="160323408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,11 +1731,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="217480576"/>
+        <c:axId val="160323408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1512,14 +1744,15 @@
                 <a:gsLst>
                   <a:gs pos="100000">
                     <a:schemeClr val="dk1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
                     </a:schemeClr>
                   </a:gs>
                   <a:gs pos="0">
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
                     </a:schemeClr>
                   </a:gs>
                 </a:gsLst>
@@ -1539,8 +1772,9 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -1571,8 +1805,9 @@
               <a:pPr>
                 <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -1588,33 +1823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="217479008"/>
+        <c:crossAx val="160322848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1631,15 +1840,31 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="002060"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1684,19 +1909,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1709,7 +1928,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10591666666666667"/>
+          <c:y val="4.1666666666666664E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1723,19 +1949,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -1757,7 +1977,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$20:$B$21</c:f>
+              <c:f>FMNCONPRO!$C$22:$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1770,47 +1990,80 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$A$22:$A$24</c:f>
+              <c:f>FMNCONPRO!$B$24:$B$26</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1827,38 +2080,38 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$B$22:$B$24</c:f>
+              <c:f>FMNCONPRO!$C$24:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>0.87179487179487181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0.4358974358974359</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="243859640"/>
-        <c:axId val="243861208"/>
+        <c:gapWidth val="65"/>
+        <c:axId val="160325648"/>
+        <c:axId val="162797312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243859640"/>
+        <c:axId val="160325648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1870,11 +2123,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="54000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1886,10 +2139,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1900,7 +2154,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243861208"/>
+        <c:crossAx val="162797312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1908,61 +2162,28 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243861208"/>
+        <c:axId val="162797312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:glow>
-                <a:schemeClr val="bg1"/>
-              </a:glow>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="243859640"/>
+        <c:crossAx val="160325648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1982,25 +2203,27 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
       <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
       </a:path>
       <a:tileRect/>
     </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2103,14 +2326,15 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" b="1" kern="1200"/>
@@ -2120,11 +2344,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea>
     <cs:lnRef idx="0"/>
@@ -2134,17 +2370,30 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2154,156 +2403,120 @@
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
           <a:lumMod val="65000"/>
           <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
         </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:miter lim="800000"/>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2327,16 +2540,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2348,7 +2562,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2360,10 +2574,10 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2377,11 +2591,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2395,8 +2610,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2424,14 +2640,15 @@
           <a:gsLst>
             <a:gs pos="100000">
               <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -2449,27 +2666,25 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="100000">
               <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-                <a:alpha val="25000"/>
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="0">
-              <a:schemeClr val="dk1">
-                <a:lumMod val="65000"/>
-                <a:lumOff val="35000"/>
-                <a:alpha val="25000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2483,11 +2698,12 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2501,11 +2717,11 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2514,10 +2730,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -2541,10 +2766,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2557,8 +2794,9 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2570,11 +2808,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2583,14 +2822,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -2600,8 +2837,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2615,17 +2853,15 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2634,10 +2870,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2652,158 +2894,196 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
   <cs:dataPointMarkerLayout symbol="circle" size="6"/>
@@ -2811,10 +3091,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2830,16 +3110,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2851,20 +3132,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2875,14 +3156,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2894,13 +3175,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2912,7 +3194,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2920,16 +3202,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2939,16 +3233,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2957,14 +3263,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -2976,14 +3282,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2994,10 +3300,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea>
@@ -3005,7 +3320,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3013,7 +3328,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3021,16 +3336,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3043,14 +3359,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3062,19 +3378,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3083,7 +3392,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3098,8 +3407,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3109,7 +3419,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3117,9 +3427,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3130,10 +3440,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3141,7 +3457,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3224,15 +3540,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3254,16 +3570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3280,6 +3596,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>321252</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97014</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="321252" y="55418"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3322,58 +3706,6 @@
         <a:xfrm>
           <a:off x="7096125" y="1400175"/>
           <a:ext cx="7496175" cy="3676650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5029201" y="3800475"/>
-          <a:ext cx="6010274" cy="4133850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3655,8 +3987,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3670,199 +4002,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="47"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="35"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="50"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="46"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="52" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
+      <c r="A10" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="39" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="48" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="48" t="s">
+      <c r="G11" s="59"/>
+      <c r="H11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="40"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -3981,47 +4313,47 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="92"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="95" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="96"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="97"/>
+      <c r="J17" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="41"/>
     </row>
     <row r="18" spans="10:16" ht="32.25" customHeight="1">
-      <c r="J18" s="93" t="s">
+      <c r="J18" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="94" t="s">
+      <c r="K18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="94" t="s">
+      <c r="L18" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="94" t="s">
+      <c r="M18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="94" t="s">
+      <c r="N18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O18" s="94" t="s">
+      <c r="O18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="94" t="s">
+      <c r="P18" s="34" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4232,197 +4564,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15" customHeight="1"/>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1"/>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:7">
-      <c r="B5" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="104"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B6" s="105"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-    </row>
-    <row r="7" spans="1:7" ht="26.25" thickBot="1">
-      <c r="B7" s="3" t="s">
+    <row r="1" spans="1:19">
+      <c r="B1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="B2" s="45"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="47"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="47"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" customHeight="1">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="47"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="50"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="C7" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+    </row>
+    <row r="9" spans="1:19" ht="26.25" thickBot="1">
+      <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B8" s="4" t="s">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B9" s="8" t="s">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="B10" s="11" t="s">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+      <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="13" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A13" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="97"/>
-    </row>
-    <row r="14" spans="1:7" s="101" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A14" s="99" t="s">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:19" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A15" s="117" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="118"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
+    </row>
+    <row r="16" spans="1:19" s="128" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A16" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="100" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="100" t="s">
+      <c r="C16" s="126" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="100" t="s">
+      <c r="E16" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="100" t="s">
+      <c r="F16" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="G16" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="127" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="115" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="36" customHeight="1" thickBot="1">
+      <c r="A17" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="122">
+        <v>34</v>
+      </c>
+      <c r="E17" s="122">
         <v>17</v>
       </c>
-      <c r="G14" s="100" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="15">
-        <v>2</v>
-      </c>
-      <c r="F15" s="15">
-        <f>G15</f>
-        <v>1</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1"/>
-    <row r="20" spans="1:7" ht="39.75" customHeight="1">
-      <c r="A20" s="109" t="s">
+      <c r="F17" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="122">
+        <f>+J17</f>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="H17" s="123">
+        <f>AVERAGE(D17:E17)/39</f>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="I17" s="124">
+        <f>J17</f>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="J17" s="123">
+        <f>E17/39</f>
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:10" ht="39.75" customHeight="1">
+      <c r="B22" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="108"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75">
+      <c r="B23" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="108" t="s">
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="108">
-        <f>+C15</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="108" t="s">
+      <c r="C24" s="36">
+        <f>D17/39</f>
+        <v>0.87179487179487181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="108">
-        <f>+D15</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="108" t="s">
+      <c r="C25" s="36">
+        <f>E17/39</f>
+        <v>0.4358974358974359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="108">
-        <f>+E15</f>
-        <v>2</v>
+      <c r="C26" s="36" t="str">
+        <f>+F17</f>
+        <v>POR REVISAR</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="A20:B20"/>
+  <mergeCells count="4">
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B1:S6"/>
+    <mergeCell ref="A15:J15"/>
   </mergeCells>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3TrafficLights2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
+          <x14:cfRule type="iconSet" priority="2" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4438,7 +4932,7 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>F15</xm:sqref>
+          <xm:sqref>G17 I17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4476,219 +4970,204 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="84" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="87" t="s">
+      <c r="F5" s="69"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="78" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="81" t="s">
+      <c r="F6" s="75"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
     </row>
     <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="78" t="s">
+      <c r="D7" s="74"/>
+      <c r="E7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="80"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="81" t="s">
+      <c r="F7" s="75"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="83"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="81" t="s">
+      <c r="D8" s="74"/>
+      <c r="E8" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="82"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="81" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="78"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="74"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="22"/>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="71" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="72"/>
-      <c r="D12" s="73" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="71" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="72"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="72"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="72"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="70" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="84"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="72"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="71" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="84"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="72"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="72"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="84"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="72"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="70" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="72"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="84"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="71" t="s">
+      <c r="C19" s="84"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="J12:J19"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
     <mergeCell ref="C12:C19"/>
     <mergeCell ref="D12:F19"/>
     <mergeCell ref="G12:I12"/>
@@ -4699,9 +5178,24 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J12:J19"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4754,10 +5248,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -4804,9 +5298,9 @@
       </c>
     </row>
     <row r="20" spans="7:9">
-      <c r="G20" s="90"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4830,31 +5324,34 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:K36"/>
+  <dimension ref="A7:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="67" t="s">
+      <c r="E8" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="91"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="18" t="s">
@@ -4876,82 +5373,116 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="61"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="91"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="61"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="55"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="92"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="61"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="55"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="92"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="62"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="56"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="93"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="33" spans="1:2" ht="30" customHeight="1">
+    <row r="18" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:5" ht="32.25" thickBot="1">
+      <c r="C19" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="39" thickBot="1">
+      <c r="C20" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45.75" thickBot="1">
+      <c r="C21" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1">
+      <c r="A32" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="38.25" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="38.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" customHeight="1">
-      <c r="A35" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="21"/>
+    <row r="35" spans="1:2">
+      <c r="A35" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -4966,6 +5497,6 @@
     <mergeCell ref="H10:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
     <sheet name="FMNCONPRO" sheetId="6" r:id="rId2"/>
-    <sheet name="Hoja6" sheetId="7" r:id="rId3"/>
+    <sheet name="FMVREQM" sheetId="7" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
     <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -143,13 +143,7 @@
     <t>Porcentaje de Requerimientos cambiados</t>
   </si>
   <si>
-    <t>#_Requerimientos_en_proceso</t>
-  </si>
-  <si>
     <t>Cantidad de Requerimientos en proceso en el Ciclo de Producción, ya sean Requerimientos que han iniciado en el Ciclo de Producción actual o en uno anterior.</t>
-  </si>
-  <si>
-    <t>#_Requerimientos_cambiados</t>
   </si>
   <si>
     <t>Cantidad de Requerimientos que registraron cambios en requerimientos durante el Ciclo de Producción.</t>
@@ -361,12 +355,27 @@
   <si>
     <t>SEMAFORO GLOBAL</t>
   </si>
+  <si>
+    <t>TABLA DE INDICADORES REQM</t>
+  </si>
+  <si>
+    <t>#_Req_en_proceso</t>
+  </si>
+  <si>
+    <t>#_Req_cambiados</t>
+  </si>
+  <si>
+    <t>Volatilidad de Requerimientos</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE VOLATILIDAD DE REQUERIMIENTOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +633,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1019,7 +1042,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1152,57 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1213,6 +1287,63 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1231,48 +1362,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,88 +1407,31 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1620,11 +1652,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160322848"/>
-        <c:axId val="160323408"/>
+        <c:axId val="150660992"/>
+        <c:axId val="150661552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="160322848"/>
+        <c:axId val="150660992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,7 +1755,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160323408"/>
+        <c:crossAx val="150661552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1731,7 +1763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="160323408"/>
+        <c:axId val="150661552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,7 +1855,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160322848"/>
+        <c:crossAx val="150660992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2107,11 +2139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="160325648"/>
-        <c:axId val="162797312"/>
+        <c:axId val="150662112"/>
+        <c:axId val="150662672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="160325648"/>
+        <c:axId val="150662112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2186,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162797312"/>
+        <c:crossAx val="150662672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2194,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162797312"/>
+        <c:axId val="150662672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2215,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160325648"/>
+        <c:crossAx val="150662112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3600,14 +3632,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>321252</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>97014</xdr:rowOff>
     </xdr:to>
@@ -3670,6 +3702,79 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321252</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="321252" y="55418"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3988,7 +4093,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P6"/>
+      <selection activeCell="F12" sqref="F12:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4002,199 +4107,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="47"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="47"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="50"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="67"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="53"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="70"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="56"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="80"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
+      <c r="A10" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="75"/>
+      <c r="D11" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60" t="s">
+      <c r="E11" s="76"/>
+      <c r="F11" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="60" t="s">
+      <c r="G11" s="76"/>
+      <c r="H11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="59"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -4324,15 +4429,15 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
+      <c r="J17" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="10:16" ht="32.25" customHeight="1">
       <c r="J18" s="33" t="s">
@@ -4564,10 +4669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4584,141 +4689,141 @@
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:18" ht="15" customHeight="1">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="44"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="47"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="47"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="46"/>
-      <c r="S5" s="47"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="50"/>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="109" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="111"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-    </row>
-    <row r="9" spans="1:19" ht="26.25" thickBot="1">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" customHeight="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="124"/>
+      <c r="N2" s="124"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="124"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" customHeight="1">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="124"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="124"/>
+      <c r="R3" s="124"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" customHeight="1">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="124"/>
+      <c r="R5" s="124"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="C7" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="126"/>
+      <c r="E7" s="127"/>
+    </row>
+    <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
+      <c r="C8" s="128"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="130"/>
+    </row>
+    <row r="9" spans="1:18" ht="26.25" thickBot="1">
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
@@ -4729,7 +4834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
@@ -4740,7 +4845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1">
+    <row r="11" spans="1:18" ht="15.75" thickBot="1">
       <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
@@ -4751,7 +4856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1">
+    <row r="12" spans="1:18" ht="15.75" thickBot="1">
       <c r="C12" s="11" t="s">
         <v>25</v>
       </c>
@@ -4762,95 +4867,95 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:19" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A15" s="117" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="118"/>
-      <c r="C15" s="118"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="118"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
-    </row>
-    <row r="16" spans="1:19" s="128" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="125" t="s">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:18" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A15" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="1:18" s="54" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A16" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="126" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="126" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="126" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="126" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="127" t="s">
+      <c r="J16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="I16" s="127" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="115" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="17" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A17" s="116" t="s">
+      <c r="A17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="122">
+      <c r="D17" s="48">
         <v>34</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="48">
         <v>17</v>
       </c>
-      <c r="F17" s="122" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="122">
+      <c r="F17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="48">
         <f>+J17</f>
         <v>0.4358974358974359</v>
       </c>
-      <c r="H17" s="123">
+      <c r="H17" s="49">
         <f>AVERAGE(D17:E17)/39</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="I17" s="124">
+      <c r="I17" s="50">
         <f>J17</f>
         <v>0.4358974358974359</v>
       </c>
-      <c r="J17" s="123">
+      <c r="J17" s="49">
         <f>E17/39</f>
         <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="22" spans="1:10" ht="39.75" customHeight="1">
-      <c r="B22" s="107" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="108"/>
+      <c r="B22" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="85"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
@@ -4861,10 +4966,10 @@
     </row>
     <row r="23" spans="1:10" ht="15.75">
       <c r="B23" s="38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -4898,8 +5003,8 @@
   <mergeCells count="4">
     <mergeCell ref="C7:E8"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B1:S6"/>
     <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A1:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="I17">
     <cfRule type="iconSet" priority="1">
@@ -4942,15 +5047,299 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="64"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="62"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="64"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="64"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="126"/>
+      <c r="C8" s="127"/>
+    </row>
+    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+    </row>
+    <row r="10" spans="1:12" ht="26.25" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A15" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+    </row>
+    <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A16" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A17" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0</v>
+      </c>
+      <c r="E17" s="48">
+        <v>1</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="48">
+        <f>+J17</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="49">
+        <f>(D17+E17)/4*100</f>
+        <v>25</v>
+      </c>
+      <c r="I17" s="50">
+        <f>J17</f>
+        <v>25</v>
+      </c>
+      <c r="J17" s="49">
+        <f>E17/4*100</f>
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A15:J15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{CBD7A6D0-C43B-416D-BE21-A198B74C68DD}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>11</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>36</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{2288E40A-70D3-4ECB-BEE8-C44463D6F431}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>11</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>36</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G17 I17</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4970,201 +5359,219 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="105"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="67" t="s">
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
+    </row>
+    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C6" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="70" t="s">
+      <c r="D6" s="98"/>
+      <c r="E6" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="99"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
-    </row>
-    <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="73" t="s">
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C7" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="73" t="s">
+      <c r="D7" s="98"/>
+      <c r="E7" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="76" t="s">
+      <c r="F7" s="99"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-    </row>
-    <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="73" t="s">
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+    </row>
+    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
+      <c r="C8" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="74"/>
-      <c r="E7" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="76" t="s">
+      <c r="D8" s="98"/>
+      <c r="E8" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-    </row>
-    <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="73" t="s">
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="76" t="s">
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-    </row>
-    <row r="9" spans="3:10">
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-    </row>
-    <row r="10" spans="3:10">
-      <c r="C10" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="22"/>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="3:10">
+      <c r="C12" s="89"/>
+      <c r="D12" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="86" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="84"/>
-      <c r="D12" s="85" t="s">
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="89"/>
+    </row>
+    <row r="13" spans="3:10">
+      <c r="C13" s="89"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="89"/>
+    </row>
+    <row r="14" spans="3:10">
+      <c r="C14" s="89"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86" t="s">
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="89"/>
+    </row>
+    <row r="15" spans="3:10">
+      <c r="C15" s="89"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="84"/>
-    </row>
-    <row r="13" spans="3:10">
-      <c r="C13" s="84"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="84"/>
-    </row>
-    <row r="14" spans="3:10">
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="83" t="s">
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="89"/>
+    </row>
+    <row r="16" spans="3:10">
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-    </row>
-    <row r="15" spans="3:10">
-      <c r="C15" s="84"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="82" t="s">
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="89"/>
+    </row>
+    <row r="17" spans="3:10">
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="89"/>
+    </row>
+    <row r="18" spans="3:10">
+      <c r="C18" s="89"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="84"/>
-    </row>
-    <row r="16" spans="3:10">
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86" t="s">
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="89"/>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="84"/>
-    </row>
-    <row r="17" spans="3:10">
-      <c r="C17" s="84"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-    </row>
-    <row r="18" spans="3:10">
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="84"/>
-    </row>
-    <row r="19" spans="3:10">
-      <c r="C19" s="84"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="84"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -5178,24 +5585,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5218,26 +5607,26 @@
   <sheetData>
     <row r="5" spans="2:9" ht="24.95" customHeight="1">
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="24.95" customHeight="1">
       <c r="B6" s="28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="24.95" customHeight="1">
       <c r="B7" s="26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="15.75">
@@ -5248,10 +5637,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="76"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -5326,8 +5715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5343,15 +5732,15 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="18" t="s">
@@ -5373,88 +5762,88 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="96" t="s">
+      <c r="E10" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="94" t="s">
+      <c r="F10" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="100"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="96"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="96"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="92"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="114"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="96"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="92"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="114"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="97"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="93"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:5" ht="32.25" thickBot="1">
-      <c r="C19" s="103" t="s">
+      <c r="C19" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="20" spans="1:5" ht="39" thickBot="1">
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="E20" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45.75" thickBot="1">
+      <c r="C21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="104" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1">
-      <c r="C21" s="106" t="s">
+      <c r="E21" s="41" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" s="104" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="104" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
@@ -5467,18 +5856,18 @@
     </row>
     <row r="33" spans="1:2" ht="38.25" customHeight="1">
       <c r="A33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>37</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2">

--- a/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-USR-AQ265-A0906\Desktop\IMP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6135" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="98">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -370,12 +370,39 @@
   <si>
     <t>TABLERO DE METRICAS DE VOLATILIDAD DE REQUERIMIENTOS</t>
   </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>CANTIDAD N CONFORMIDADES</t>
+  </si>
+  <si>
+    <t>NRO DE ENTREGABLES</t>
+  </si>
+  <si>
+    <t>Numero de Entregables</t>
+  </si>
+  <si>
+    <t>Resultados</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS CAMBIADOS</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS EN PROCESO</t>
+  </si>
+  <si>
+    <t>Numero de REQUERIMIENTOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,6 +674,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -728,7 +768,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1037,12 +1077,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,9 +1393,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,6 +1417,95 @@
     <xf numFmtId="0" fontId="36" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="39" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1287,18 +1590,69 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,33 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,8 +1798,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15705555555555556"/>
-          <c:y val="2.3148148148148147E-2"/>
+          <c:x val="0.14528213774602677"/>
+          <c:y val="2.3148180136855368E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1515,7 +1842,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$17:$C$17</c:f>
+              <c:f>FMNCONPRO!$B$26:$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1606,7 +1933,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$D$16:$F$16</c:f>
+              <c:f>FMNCONPRO!$D$25:$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1623,12 +1950,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$D$17:$F$17</c:f>
+              <c:f>FMNCONPRO!$D$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>17</c:v>
@@ -1652,11 +1979,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150660992"/>
-        <c:axId val="150661552"/>
+        <c:axId val="215411904"/>
+        <c:axId val="215319768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150660992"/>
+        <c:axId val="215411904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1755,7 +2082,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150661552"/>
+        <c:crossAx val="215319768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1763,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150661552"/>
+        <c:axId val="215319768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +2182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150660992"/>
+        <c:crossAx val="215411904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2009,7 +2336,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FMNCONPRO!$C$22:$C$23</c:f>
+              <c:f>FMNCONPRO!$C$34:$C$35</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2095,7 +2422,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>FMNCONPRO!$B$24:$B$26</c:f>
+              <c:f>FMNCONPRO!$B$36:$B$38</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2112,17 +2439,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FMNCONPRO!$C$24:$C$26</c:f>
+              <c:f>FMNCONPRO!$C$36:$C$38</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.87179487179487181</c:v>
+                  <c:v>0.77777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.4358974358974359</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="2" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2139,11 +2466,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="150662112"/>
-        <c:axId val="150662672"/>
+        <c:axId val="215927656"/>
+        <c:axId val="215342216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150662112"/>
+        <c:axId val="215927656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2186,7 +2513,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150662672"/>
+        <c:crossAx val="215342216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2194,7 +2521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150662672"/>
+        <c:axId val="215342216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,11 +2538,11 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150662112"/>
+        <c:crossAx val="215927656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2252,6 +2579,773 @@
       <a:tileRect/>
     </a:gradFill>
     <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Cambios</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-PE" baseline="0"/>
+              <a:t> de Requerimientos UTP-GPS-ALARM</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMVREQM!$D$33:$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMVREQM!$D$34:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="215925712"/>
+        <c:axId val="215926096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="215925712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Meses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215926096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="215926096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>Requerimientos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="215925712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11946522309711285"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMVREQM!$B$39:$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>TABLERO DE METRICAS DE N CONFORMIDADES QA DE PRODUCTO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>VALORES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMVREQM!$A$41:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMVREQM!$B$41:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="216032520"/>
+        <c:axId val="213953496"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="216032520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213953496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="213953496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="216032520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
       </a:solidFill>
@@ -2357,6 +3451,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -3491,6 +4665,1003 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3572,16 +5743,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>557211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3603,15 +5774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>195262</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3667,6 +5838,74 @@
         <a:xfrm>
           <a:off x="321252" y="55418"/>
           <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>235098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>270196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4505325" y="8321823"/>
+          <a:ext cx="1000125" cy="730423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3769,6 +6008,134 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>631866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4743450" y="8467725"/>
+          <a:ext cx="876300" cy="889041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4107,199 +6474,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="61"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="91"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="64"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="64"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="93"/>
+      <c r="M3" s="93"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="94"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="93"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="94"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="94"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="67"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="97"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="70"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="71"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="73"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="103"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="80"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="113"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="74" t="s">
+      <c r="C11" s="105"/>
+      <c r="D11" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="76"/>
-      <c r="F11" s="77" t="s">
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77" t="s">
+      <c r="G11" s="106"/>
+      <c r="H11" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="106"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -4429,15 +6796,15 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="56" t="s">
+      <c r="J17" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="88"/>
     </row>
     <row r="18" spans="10:16" ht="32.25" customHeight="1">
       <c r="J18" s="33" t="s">
@@ -4669,10 +7036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4680,148 +7047,148 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-      <c r="R1" s="124"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="124"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="124"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="124"/>
-      <c r="N3" s="124"/>
-      <c r="O3" s="124"/>
-      <c r="P3" s="124"/>
-      <c r="Q3" s="124"/>
-      <c r="R3" s="124"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="124"/>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="124"/>
-      <c r="N5" s="124"/>
-      <c r="O5" s="124"/>
-      <c r="P5" s="124"/>
-      <c r="Q5" s="124"/>
-      <c r="R5" s="124"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="114" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="126"/>
-      <c r="E7" s="127"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C8" s="128"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="119"/>
     </row>
     <row r="9" spans="1:18" ht="26.25" thickBot="1">
       <c r="C9" s="3" t="s">
@@ -4867,147 +7234,320 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1"/>
-    <row r="15" spans="1:18" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A15" s="86" t="s">
+    <row r="13" spans="1:18" ht="15.75" thickBot="1"/>
+    <row r="14" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A14" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
-    </row>
-    <row r="16" spans="1:18" s="54" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A16" s="51" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:18" ht="60.75" thickBot="1">
+      <c r="A15" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B15" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C15" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D15" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="39" thickBot="1">
+      <c r="A16" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="67">
+        <v>7</v>
+      </c>
+      <c r="F16" s="67">
+        <v>9</v>
+      </c>
+      <c r="G16" s="68">
+        <f>E16/F16</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H16" s="69">
+        <f>+G16</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A19" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+    </row>
+    <row r="20" spans="1:11" ht="60.75" thickBot="1">
+      <c r="A20" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="39" thickBot="1">
+      <c r="A21" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="E21" s="67">
+        <v>34</v>
+      </c>
+      <c r="F21" s="67">
+        <v>39</v>
+      </c>
+      <c r="G21" s="68">
+        <f>E21/F21</f>
+        <v>0.87179487179487181</v>
+      </c>
+      <c r="H21" s="69">
+        <f>+G21</f>
+        <v>0.87179487179487181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1"/>
+    <row r="24" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
+      <c r="A24" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="127"/>
+      <c r="C24" s="127"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:11" s="53" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A25" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+    </row>
+    <row r="26" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A26" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15">
+        <v>7</v>
+      </c>
+      <c r="E26" s="15">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="133"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="74"/>
+    </row>
+    <row r="27" spans="1:11" ht="45">
+      <c r="A27" s="124" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="36">
+        <v>9</v>
+      </c>
+      <c r="E27" s="36">
+        <v>39</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H27" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="36" customHeight="1" thickBot="1">
-      <c r="A17" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="48">
-        <v>34</v>
-      </c>
-      <c r="E17" s="48">
-        <v>17</v>
-      </c>
-      <c r="F17" s="48" t="s">
+    </row>
+    <row r="28" spans="1:11" ht="45.75" thickBot="1">
+      <c r="A28" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="81">
+        <f>D26/D27</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E28" s="81">
+        <f>E26/E27</f>
+        <v>0.4358974358974359</v>
+      </c>
+      <c r="F28" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="48">
-        <f>+J17</f>
+      <c r="G28" s="83">
+        <f>+J28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="84">
+        <f>AVERAGE(D28:E28)</f>
+        <v>0.6068376068376069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="K29" s="80"/>
+    </row>
+    <row r="33" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="34" spans="2:20" ht="39.75" customHeight="1">
+      <c r="B34" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="121"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="T34" s="71"/>
+    </row>
+    <row r="35" spans="2:20" ht="15.75">
+      <c r="B35" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20">
+      <c r="B36" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="58">
+        <f>D26/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20">
+      <c r="B37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="58">
+        <f>E26/39</f>
         <v>0.4358974358974359</v>
       </c>
-      <c r="H17" s="49">
-        <f>AVERAGE(D17:E17)/39</f>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="I17" s="50">
-        <f>J17</f>
-        <v>0.4358974358974359</v>
-      </c>
-      <c r="J17" s="49">
-        <f>E17/39</f>
-        <v>0.4358974358974359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1"/>
-    <row r="22" spans="1:10" ht="39.75" customHeight="1">
-      <c r="B22" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" ht="15.75">
-      <c r="B23" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="36">
-        <f>D17/39</f>
-        <v>0.87179487179487181</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="36">
-        <f>E17/39</f>
-        <v>0.4358974358974359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="36" t="s">
+    </row>
+    <row r="38" spans="2:20">
+      <c r="B38" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="36" t="str">
-        <f>+F17</f>
+      <c r="C38" s="36" t="str">
+        <f>+F26</f>
         <v>POR REVISAR</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="C7:E8"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A1:L6"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="G25:H26"/>
   </mergeCells>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3TrafficLights2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5016,12 +7556,13 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
+          <x14:cfRule type="iconSet" priority="5" id="{D77E4CC9-CE3D-4BBD-8FDF-2035D6D65AED}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5037,7 +7578,64 @@
               <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>G17 I17</xm:sqref>
+          <xm:sqref>I26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{B7B11DFA-2019-4954-A4A8-4D6BB815C7E1}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{61D5B203-D035-40E1-B44F-563AE0BAF98A}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{0766904C-7CC9-4295-A584-6460DB31FA2E}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5047,118 +7645,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:J17"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="61"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="91"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="64"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="62"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="62"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="93"/>
+      <c r="L4" s="94"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="62"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="67"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="97"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="127"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
     </row>
     <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="119"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -5206,45 +7804,45 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="126" t="s">
         <v>89</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="88"/>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="50" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="132" t="s">
+      <c r="F16" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="52" t="s">
         <v>82</v>
       </c>
       <c r="J16" s="44" t="s">
@@ -5258,40 +7856,327 @@
       <c r="B17" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="47">
         <v>0</v>
       </c>
-      <c r="E17" s="48">
+      <c r="E17" s="47">
         <v>1</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="48">
+      <c r="G17" s="47">
         <f>+J17</f>
         <v>25</v>
       </c>
-      <c r="H17" s="49">
+      <c r="H17" s="48">
         <f>(D17+E17)/4*100</f>
         <v>25</v>
       </c>
-      <c r="I17" s="50">
+      <c r="I17" s="49">
         <f>J17</f>
         <v>25</v>
       </c>
-      <c r="J17" s="49">
+      <c r="J17" s="48">
         <f>E17/4*100</f>
         <v>25</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="21" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A21" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+    </row>
+    <row r="22" spans="1:10" ht="48.75" thickBot="1">
+      <c r="A22" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A23" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="67">
+        <v>0</v>
+      </c>
+      <c r="F23" s="67">
+        <v>15</v>
+      </c>
+      <c r="G23" s="68">
+        <f>E23/F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="69">
+        <f>+G23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="27" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A27" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+    </row>
+    <row r="28" spans="1:10" ht="48.75" thickBot="1">
+      <c r="A28" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30.75" thickBot="1">
+      <c r="A29" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="67">
+        <v>1</v>
+      </c>
+      <c r="F29" s="67">
+        <v>15</v>
+      </c>
+      <c r="G29" s="68">
+        <f>E29/F29*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H29" s="69">
+        <f>+G29</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="32" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A32" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="127"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="127"/>
+    </row>
+    <row r="33" spans="1:8" ht="24.75" thickBot="1">
+      <c r="A33" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="131"/>
+      <c r="H33" s="132"/>
+    </row>
+    <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
+      <c r="A34" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="15">
+        <v>0</v>
+      </c>
+      <c r="E34" s="15">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="133"/>
+      <c r="H34" s="134"/>
+    </row>
+    <row r="35" spans="1:8" ht="30">
+      <c r="A35" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="125"/>
+      <c r="C35" s="125"/>
+      <c r="D35" s="36">
+        <v>15</v>
+      </c>
+      <c r="E35" s="36">
+        <v>15</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A36" s="128" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="129"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="81">
+        <f>D34/D35*100</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="81">
+        <f>E34/E35*100</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F36" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="83">
+        <f>+J36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="84">
+        <f>AVERAGE(D36:E36)</f>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:8" ht="36.75" customHeight="1">
+      <c r="A39" s="120" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="121"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="58">
+        <f>D36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="58">
+        <f>+E36</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -5300,7 +8185,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{CBD7A6D0-C43B-416D-BE21-A198B74C68DD}">
+          <x14:cfRule type="iconSet" priority="4" id="{CBD7A6D0-C43B-416D-BE21-A198B74C68DD}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5319,7 +8204,7 @@
           <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{2288E40A-70D3-4ECB-BEE8-C44463D6F431}">
+          <x14:cfRule type="iconSet" priority="5" id="{2288E40A-70D3-4ECB-BEE8-C44463D6F431}">
             <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -5336,6 +8221,63 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>G17 I17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{41E02EDB-031B-4DF7-BBD9-AC625B797F68}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{95565DB4-CDAC-41EE-8CE8-0B42918B93FF}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>11</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>36</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>H29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{15408CE2-3B91-4EE8-98CD-28A71309B928}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5359,198 +8301,198 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="103" t="s">
+      <c r="C5" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="104"/>
-      <c r="E5" s="103" t="s">
+      <c r="D5" s="151"/>
+      <c r="E5" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="106" t="s">
+      <c r="F5" s="152"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="108"/>
+      <c r="I5" s="154"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C6" s="97" t="s">
+      <c r="C6" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="98"/>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="145"/>
+      <c r="E6" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="99"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="100" t="s">
+      <c r="F6" s="146"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="147" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
     </row>
     <row r="7" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="100" t="s">
+      <c r="F7" s="146"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="101"/>
-      <c r="J7" s="102"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="3:10" ht="24" customHeight="1" thickBot="1">
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="100" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="147" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="100" t="s">
+      <c r="F8" s="148"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="93" t="s">
+      <c r="C10" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="22"/>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="137" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91" t="s">
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="89"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="136"/>
+      <c r="D12" s="137" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91" t="s">
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="89"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="136"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="89"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="89"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="136"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="92" t="s">
+      <c r="C14" s="136"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="92"/>
-      <c r="J14" s="89"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="136"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="89"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="93" t="s">
+      <c r="C15" s="136"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="89"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="136"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91" t="s">
+      <c r="C16" s="136"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="89"/>
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="136"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="89"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="89"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="136"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="89"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="93" t="s">
+      <c r="C18" s="136"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="89"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="136"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91" t="s">
+      <c r="C19" s="136"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="89"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5637,10 +8579,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -5732,15 +8674,15 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="156" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="113"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="157"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="160"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="18" t="s">
@@ -5762,53 +8704,53 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="116" t="s">
+      <c r="F10" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="120" t="s">
+      <c r="G10" s="167" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="113"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="161"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="118"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="113"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="161"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="118"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="114"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="163"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="161"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="118"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="114"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="161"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="119"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="115"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="162"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>

--- a/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
+++ b/Area_de_Proceso-_MA/TABME_V1.0_2015.xlsx
@@ -5,20 +5,21 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LAB-USR-AQ265-A0906\Desktop\IMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Perochena\Documents\GitHub\UTP-GPS-ALARM\Area_de_Proceso-_MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tableros" sheetId="1" r:id="rId1"/>
     <sheet name="FMNCONPRO" sheetId="6" r:id="rId2"/>
     <sheet name="FMVREQM" sheetId="7" r:id="rId3"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
-    <sheet name="Hoja1" sheetId="5" r:id="rId6"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId7"/>
+    <sheet name="FMEXRI" sheetId="8" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="5" r:id="rId7"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="106">
   <si>
     <t xml:space="preserve">    EJR-SOFT</t>
   </si>
@@ -356,9 +357,6 @@
     <t>SEMAFORO GLOBAL</t>
   </si>
   <si>
-    <t>TABLA DE INDICADORES REQM</t>
-  </si>
-  <si>
     <t>#_Req_en_proceso</t>
   </si>
   <si>
@@ -393,6 +391,33 @@
   </si>
   <si>
     <t>Numero de REQUERIMIENTOS</t>
+  </si>
+  <si>
+    <t>TABLA DE INDICADORES PPMC</t>
+  </si>
+  <si>
+    <t>TABLERO DE METRICAS DE EXPOSICION AL RIESGO</t>
+  </si>
+  <si>
+    <t>PPPMC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPOSICION </t>
+  </si>
+  <si>
+    <t>Ficha de Metricas de Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>TABME_V#.#_2015</t>
+  </si>
+  <si>
+    <t>FMEXRI_V#.#_2015</t>
+  </si>
+  <si>
+    <t>Plantilla para la elaboracion de Metricas de Exposicion al Riesgo</t>
+  </si>
+  <si>
+    <t>EXPOSICION AL RIESGO</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1506,6 +1531,12 @@
     <xf numFmtId="0" fontId="35" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1656,6 +1687,57 @@
     <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1665,57 +1747,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,6 +1790,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1979,11 +2064,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215411904"/>
-        <c:axId val="215319768"/>
+        <c:axId val="175386368"/>
+        <c:axId val="175385808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215411904"/>
+        <c:axId val="175386368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2167,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215319768"/>
+        <c:crossAx val="175385808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215319768"/>
+        <c:axId val="175385808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215411904"/>
+        <c:crossAx val="175386368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2402,7 +2487,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2466,11 +2550,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="65"/>
-        <c:axId val="215927656"/>
-        <c:axId val="215342216"/>
+        <c:axId val="175391408"/>
+        <c:axId val="175391968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="215927656"/>
+        <c:axId val="175391408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,7 +2597,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215342216"/>
+        <c:crossAx val="175391968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2521,7 +2605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215342216"/>
+        <c:axId val="175391968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2542,7 +2626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215927656"/>
+        <c:crossAx val="175391408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2756,11 +2840,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215925712"/>
-        <c:axId val="215926096"/>
+        <c:axId val="175394768"/>
+        <c:axId val="175395328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215925712"/>
+        <c:axId val="175394768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2943,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215926096"/>
+        <c:crossAx val="175395328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2867,7 +2951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215926096"/>
+        <c:axId val="175395328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2974,7 +3058,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215925712"/>
+        <c:crossAx val="175394768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3227,12 +3311,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="216032520"/>
-        <c:axId val="213953496"/>
+        <c:axId val="175397568"/>
+        <c:axId val="175398128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="216032520"/>
+        <c:axId val="175397568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3353,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="213953496"/>
+        <c:crossAx val="175398128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3277,7 +3361,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="213953496"/>
+        <c:axId val="175398128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3325,7 +3409,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="216032520"/>
+        <c:crossAx val="175397568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3350,6 +3434,926 @@
         <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>Grafico de Exposicion al Riesgo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMEXRI!$D$30:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMEXRI!$D$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="224065872"/>
+        <c:axId val="224065312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="224065872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>MESES</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-PE" baseline="0"/>
+                  <a:t> DE MEDICION</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-PE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="224065312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="224065312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PORCENTAJE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> DE EXPOSICION AL RIESGO</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="224065872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-PE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-PE"/>
+              <a:t>VALORES CORRESPONDIENTES A CADA MES</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-PE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FMEXRI!$B$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VALORES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>FMEXRI!$A$41:$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>SETIEMBRE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>OCTUBRE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>NOVIEMBRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FMEXRI!$B$41:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="334076400"/>
+        <c:axId val="334074160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="334076400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>MESES DE MEDICION DE METRICAS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334074160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="334074160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-PE"/>
+                  <a:t>EXPOSICION AL RIESGO %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-PE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-PE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="334076400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="31750">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3531,6 +4535,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -5662,6 +6746,1070 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -6145,6 +8293,207 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321252</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="321252" y="55418"/>
+          <a:ext cx="1374198" cy="1003621"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>584240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4914900" y="6915149"/>
+          <a:ext cx="800100" cy="774741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>290512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -6460,7 +8809,7 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G15"/>
+      <selection activeCell="H12" sqref="H12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6474,199 +8823,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="93"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="96"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="93"/>
-      <c r="M3" s="93"/>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="94"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
     </row>
     <row r="4" spans="1:16" ht="15" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="94"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="96"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="93"/>
-      <c r="P5" s="94"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="96"/>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96"/>
-      <c r="P6" s="97"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="99"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="101"/>
+      <c r="K7" s="101"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="101"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
-      <c r="P8" s="103"/>
+      <c r="A8" s="103"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="104" t="s">
+      <c r="C11" s="107"/>
+      <c r="D11" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107" t="s">
+      <c r="E11" s="108"/>
+      <c r="F11" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="106"/>
-      <c r="H11" s="107" t="s">
+      <c r="G11" s="108"/>
+      <c r="H11" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="106"/>
+      <c r="I11" s="108"/>
     </row>
     <row r="12" spans="1:16" ht="26.25" thickBot="1">
       <c r="A12" s="2" t="s">
@@ -6796,15 +9145,15 @@
       <c r="I16" s="32"/>
     </row>
     <row r="17" spans="10:16" ht="19.5" thickBot="1">
-      <c r="J17" s="86" t="s">
+      <c r="J17" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="88"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="90"/>
     </row>
     <row r="18" spans="10:16" ht="32.25" customHeight="1">
       <c r="J18" s="33" t="s">
@@ -7038,8 +9387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7057,20 +9406,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
       <c r="M1" s="55"/>
       <c r="N1" s="55"/>
       <c r="O1" s="55"/>
@@ -7079,18 +9428,18 @@
       <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
       <c r="O2" s="55"/>
@@ -7099,18 +9448,18 @@
       <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
@@ -7119,18 +9468,18 @@
       <c r="R3" s="55"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
       <c r="M4" s="55"/>
       <c r="N4" s="55"/>
       <c r="O4" s="55"/>
@@ -7139,18 +9488,18 @@
       <c r="R4" s="55"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
       <c r="M5" s="55"/>
       <c r="N5" s="55"/>
       <c r="O5" s="55"/>
@@ -7159,18 +9508,18 @@
       <c r="R5" s="55"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="97"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
       <c r="M6" s="55"/>
       <c r="N6" s="55"/>
       <c r="O6" s="55"/>
@@ -7179,16 +9528,16 @@
       <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
     </row>
     <row r="8" spans="1:18" ht="23.25" customHeight="1" thickBot="1">
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="119"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:18" ht="26.25" thickBot="1">
       <c r="C9" s="3" t="s">
@@ -7236,16 +9585,16 @@
     </row>
     <row r="13" spans="1:18" ht="15.75" thickBot="1"/>
     <row r="14" spans="1:18" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A14" s="122" t="s">
+      <c r="A14" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
@@ -7260,13 +9609,13 @@
         <v>79</v>
       </c>
       <c r="D15" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="62" t="s">
+      <c r="F15" s="62" t="s">
         <v>91</v>
-      </c>
-      <c r="F15" s="62" t="s">
-        <v>92</v>
       </c>
       <c r="G15" s="62" t="s">
         <v>18</v>
@@ -7305,16 +9654,16 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="19" spans="1:11" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="125"/>
     </row>
     <row r="20" spans="1:11" ht="60.75" thickBot="1">
       <c r="A20" s="59" t="s">
@@ -7327,13 +9676,13 @@
         <v>79</v>
       </c>
       <c r="D20" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="F20" s="62" t="s">
         <v>91</v>
-      </c>
-      <c r="F20" s="62" t="s">
-        <v>92</v>
       </c>
       <c r="G20" s="62" t="s">
         <v>18</v>
@@ -7372,16 +9721,16 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="24" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
       <c r="I24" s="70"/>
       <c r="J24" s="70"/>
     </row>
@@ -7404,8 +9753,8 @@
       <c r="F25" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="131"/>
-      <c r="H25" s="132"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="134"/>
       <c r="I25" s="72"/>
       <c r="J25" s="72"/>
     </row>
@@ -7428,17 +9777,17 @@
       <c r="F26" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="133"/>
-      <c r="H26" s="134"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="136"/>
       <c r="I26" s="73"/>
       <c r="J26" s="74"/>
     </row>
     <row r="27" spans="1:11" ht="45">
-      <c r="A27" s="124" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="125"/>
-      <c r="C27" s="125"/>
+      <c r="A27" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="127"/>
+      <c r="C27" s="127"/>
       <c r="D27" s="36">
         <v>9</v>
       </c>
@@ -7456,11 +9805,11 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="45.75" thickBot="1">
-      <c r="A28" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
+      <c r="A28" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
       <c r="D28" s="81">
         <f>D26/D27</f>
         <v>0.77777777777777779</v>
@@ -7486,10 +9835,10 @@
     </row>
     <row r="33" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="34" spans="2:20" ht="39.75" customHeight="1">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="123"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
@@ -7647,8 +9996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7660,103 +10009,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="91"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="92"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="96"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="93"/>
-      <c r="L3" s="94"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="96"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="94"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="94"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="97"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="99"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:12">
-      <c r="A8" s="114" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-    </row>
-    <row r="9" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="119"/>
+      <c r="A8" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+    </row>
+    <row r="9" spans="1:12" ht="33" customHeight="1" thickBot="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
     </row>
     <row r="10" spans="1:12" ht="26.25" thickBot="1">
       <c r="A10" s="3" t="s">
@@ -7804,18 +10153,18 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1"/>
     <row r="15" spans="1:12" ht="19.5" thickBot="1">
-      <c r="A15" s="126" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="135"/>
+      <c r="A15" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="129"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="1:12" ht="30.75" customHeight="1" thickBot="1">
       <c r="A16" s="50" t="s">
@@ -7857,7 +10206,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="47">
         <v>0</v>
@@ -7873,8 +10222,8 @@
         <v>25</v>
       </c>
       <c r="H17" s="48">
-        <f>(D17+E17)/4*100</f>
-        <v>25</v>
+        <f>(D17+E17)/15*100</f>
+        <v>6.666666666666667</v>
       </c>
       <c r="I17" s="49">
         <f>J17</f>
@@ -7887,16 +10236,16 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="21" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A21" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
+      <c r="A21" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="125"/>
+      <c r="H21" s="125"/>
     </row>
     <row r="22" spans="1:10" ht="48.75" thickBot="1">
       <c r="A22" s="59" t="s">
@@ -7909,13 +10258,13 @@
         <v>79</v>
       </c>
       <c r="D22" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="62" t="s">
         <v>95</v>
-      </c>
-      <c r="F22" s="62" t="s">
-        <v>96</v>
       </c>
       <c r="G22" s="62" t="s">
         <v>18</v>
@@ -7932,7 +10281,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>14</v>
@@ -7954,16 +10303,16 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="27" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A27" s="122" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
+      <c r="A27" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="125"/>
+      <c r="C27" s="125"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="125"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="125"/>
+      <c r="H27" s="125"/>
     </row>
     <row r="28" spans="1:10" ht="48.75" thickBot="1">
       <c r="A28" s="59" t="s">
@@ -7976,13 +10325,13 @@
         <v>79</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E28" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="62" t="s">
         <v>95</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>96</v>
       </c>
       <c r="G28" s="62" t="s">
         <v>18</v>
@@ -7999,7 +10348,7 @@
         <v>8</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>15</v>
@@ -8021,16 +10370,16 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1"/>
     <row r="32" spans="1:10" ht="19.5" thickBot="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="127"/>
-      <c r="H32" s="127"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
     </row>
     <row r="33" spans="1:8" ht="24.75" thickBot="1">
       <c r="A33" s="75" t="s">
@@ -8051,8 +10400,8 @@
       <c r="F33" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="131"/>
-      <c r="H33" s="132"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="134"/>
     </row>
     <row r="34" spans="1:8" ht="54" customHeight="1" thickBot="1">
       <c r="A34" s="79" t="s">
@@ -8062,7 +10411,7 @@
         <v>8</v>
       </c>
       <c r="C34" s="56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="15">
         <v>0</v>
@@ -8073,15 +10422,15 @@
       <c r="F34" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="133"/>
-      <c r="H34" s="134"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="136"/>
     </row>
     <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="124" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="125"/>
+      <c r="A35" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="127"/>
+      <c r="C35" s="127"/>
       <c r="D35" s="36">
         <v>15</v>
       </c>
@@ -8099,11 +10448,11 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A36" s="128" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="130"/>
+      <c r="A36" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="131"/>
+      <c r="C36" s="132"/>
       <c r="D36" s="81">
         <f>D34/D35*100</f>
         <v>0</v>
@@ -8126,10 +10475,10 @@
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
     <row r="39" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A39" s="120" t="s">
+      <c r="A39" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="121"/>
+      <c r="B39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="38" t="s">
@@ -8167,16 +10516,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="G33:H34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A1:L6"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="G33:H34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A39:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8287,10 +10636,486 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="96"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="94"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="96"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="99"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:10">
+      <c r="A8" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="117"/>
+      <c r="C8" s="118"/>
+    </row>
+    <row r="9" spans="1:10" ht="33" customHeight="1" thickBot="1">
+      <c r="A9" s="119"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="121"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A13" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1"/>
+    <row r="15" spans="1:10" ht="19.5" thickBot="1">
+      <c r="A15" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.75" thickBot="1">
+      <c r="A16" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A17" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="173">
+        <v>18</v>
+      </c>
+      <c r="F17" s="174">
+        <f>+E17</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="22" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A22" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
+      <c r="F22" s="125"/>
+    </row>
+    <row r="23" spans="1:14" ht="24.75" thickBot="1">
+      <c r="A23" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30.75" thickBot="1">
+      <c r="A24" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="173">
+        <v>15</v>
+      </c>
+      <c r="F24" s="174">
+        <f>+E24</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" thickBot="1"/>
+    <row r="29" spans="1:14" ht="19.5" thickBot="1">
+      <c r="A29" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="L29" s="188"/>
+      <c r="M29" s="189"/>
+      <c r="N29" s="189"/>
+    </row>
+    <row r="30" spans="1:14" ht="24.75" thickBot="1">
+      <c r="A30" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="133"/>
+      <c r="H30" s="134"/>
+      <c r="L30" s="188"/>
+      <c r="M30" s="189"/>
+      <c r="N30" s="189"/>
+    </row>
+    <row r="31" spans="1:14" ht="53.25" customHeight="1" thickBot="1">
+      <c r="A31" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="15">
+        <v>18</v>
+      </c>
+      <c r="E31" s="15">
+        <v>15</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="135"/>
+      <c r="H31" s="136"/>
+      <c r="L31" s="188"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="189"/>
+    </row>
+    <row r="32" spans="1:14" ht="30">
+      <c r="A32" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="127"/>
+      <c r="C32" s="127"/>
+      <c r="D32" s="86">
+        <v>18</v>
+      </c>
+      <c r="E32" s="86">
+        <v>15</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="76" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A33" s="181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="182"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="184">
+        <v>18</v>
+      </c>
+      <c r="E33" s="184">
+        <v>15</v>
+      </c>
+      <c r="F33" s="185" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="187">
+        <f>+H33</f>
+        <v>16.5</v>
+      </c>
+      <c r="H33" s="186">
+        <f>AVERAGE(D33:E33)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="39" spans="1:8" ht="18.75">
+      <c r="A39" s="122" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="123"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75">
+      <c r="A40" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="190">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="86" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="190">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="190">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A1:J6"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="G30:H31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{33D9E917-C3BC-4966-95B4-F0B02EF6ABDD}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>21</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{46E2D563-8FDD-4D57-B141-AC2B42F9A8C5}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>21</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{A685F529-8294-47C2-A063-56EE6B1C95B0}">
+            <x14:iconSet iconSet="3TrafficLights2" showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>6</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>21</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights2" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>G33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C5" sqref="C5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8301,20 +11126,20 @@
   <sheetData>
     <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1">
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="150" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="152"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="153" t="s">
+      <c r="F5" s="140"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="154"/>
-      <c r="J5" s="155"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="143"/>
     </row>
     <row r="6" spans="3:10" ht="24" customHeight="1" thickBot="1">
       <c r="C6" s="144" t="s">
@@ -8365,155 +11190,137 @@
       <c r="J8" s="149"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="140" t="s">
+      <c r="C10" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="153"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="3:10">
       <c r="C11" s="22"/>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="156" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="138" t="s">
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="157" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="3:10">
-      <c r="C12" s="136"/>
-      <c r="D12" s="137" t="s">
+      <c r="C12" s="155"/>
+      <c r="D12" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138" t="s">
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="136"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="155"/>
     </row>
     <row r="13" spans="3:10">
-      <c r="C13" s="136"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="136"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="157"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="155"/>
     </row>
     <row r="14" spans="3:10">
-      <c r="C14" s="136"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="139" t="s">
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="136"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="155"/>
     </row>
     <row r="15" spans="3:10">
-      <c r="C15" s="136"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="140" t="s">
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="153" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="136"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="3:10">
-      <c r="C16" s="136"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="138" t="s">
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="136"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="3:10">
-      <c r="C17" s="136"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="136"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="3:10">
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="140" t="s">
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="136"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="3:10">
-      <c r="C19" s="136"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="138" t="s">
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="157" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="136"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="J12:J19"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
@@ -8527,18 +11334,36 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="G19:I19"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I20"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8579,10 +11404,10 @@
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1">
       <c r="G15" s="1"/>
-      <c r="H15" s="104" t="s">
+      <c r="H15" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="106"/>
+      <c r="I15" s="108"/>
     </row>
     <row r="16" spans="2:9" ht="26.25" thickBot="1">
       <c r="G16" s="2" t="s">
@@ -8641,19 +11466,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:10" ht="15.75" thickBot="1"/>
+    <row r="5" spans="3:10" ht="15.75" thickBot="1">
+      <c r="C5" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="179"/>
+      <c r="E5" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="180"/>
+      <c r="G5" s="179"/>
+      <c r="H5" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="180"/>
+      <c r="J5" s="179"/>
+    </row>
+    <row r="6" spans="3:10" ht="30.75" customHeight="1" thickBot="1">
+      <c r="C6" s="175" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="176"/>
+      <c r="E6" s="175" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="177"/>
+      <c r="G6" s="176"/>
+      <c r="H6" s="175" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="177"/>
+      <c r="J6" s="176"/>
+    </row>
+    <row r="7" spans="3:10" ht="38.25" customHeight="1" thickBot="1">
+      <c r="C7" s="175" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="176"/>
+      <c r="E7" s="175" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="177"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="177"/>
+      <c r="J7" s="176"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A7:K35"/>
   <sheetViews>
@@ -8674,15 +11568,15 @@
   <sheetData>
     <row r="7" spans="5:11" ht="15.75" thickBot="1"/>
     <row r="8" spans="5:11" ht="18.75">
-      <c r="E8" s="156" t="s">
+      <c r="E8" s="158" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="160"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="161"/>
+      <c r="K8" s="162"/>
     </row>
     <row r="9" spans="5:11" ht="15.75">
       <c r="E9" s="18" t="s">
@@ -8704,53 +11598,53 @@
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="5:11" ht="15" customHeight="1">
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="163" t="s">
+      <c r="F10" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="167" t="s">
+      <c r="G10" s="169" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="169"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="160"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="162"/>
     </row>
     <row r="11" spans="5:11" ht="15" customHeight="1">
-      <c r="E11" s="165"/>
-      <c r="F11" s="163"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
+      <c r="E11" s="167"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="161"/>
+      <c r="K11" s="162"/>
     </row>
     <row r="12" spans="5:11" ht="15.75">
-      <c r="E12" s="165"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="161"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="163"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="5:11" ht="15.75">
-      <c r="E13" s="165"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="161"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="163"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
     <row r="14" spans="5:11" ht="55.5" customHeight="1" thickBot="1">
-      <c r="E14" s="166"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="162"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="164"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
@@ -8798,7 +11692,7 @@
     </row>
     <row r="33" spans="1:2" ht="38.25" customHeight="1">
       <c r="A33" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>37</v>
@@ -8806,7 +11700,7 @@
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>38</v>
